--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2982.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2982.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.195494859324127</v>
+        <v>1.735474467277527</v>
       </c>
       <c r="B1">
-        <v>2.512420752305257</v>
+        <v>2.497875928878784</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.579309701919556</v>
       </c>
       <c r="D1">
-        <v>2.255540389357795</v>
+        <v>2.953764915466309</v>
       </c>
       <c r="E1">
-        <v>1.184473194007066</v>
+        <v>3.666409254074097</v>
       </c>
     </row>
   </sheetData>
